--- a/processor/config2020.xlsx
+++ b/processor/config2020.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Data\Problems\vkct\processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A113493-AEBB-488F-857B-DE492FF772C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A577A-9798-4E32-A1AE-1EA3E930F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16890" tabRatio="786" xr2:uid="{15338A40-4FCA-4B48-85DC-9A39AA2E7524}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="18120" tabRatio="937" firstSheet="4" activeTab="17" xr2:uid="{15338A40-4FCA-4B48-85DC-9A39AA2E7524}"/>
   </bookViews>
   <sheets>
     <sheet name="Kategorie" sheetId="1" r:id="rId1"/>
     <sheet name="Předškoláci 1" sheetId="2" r:id="rId2"/>
     <sheet name="Předškoláci 2" sheetId="5" r:id="rId3"/>
-    <sheet name="ML. PŘÍPRAVKA - D" sheetId="6" r:id="rId4"/>
-    <sheet name="ST. PŘÍPRAVKA - D" sheetId="7" r:id="rId5"/>
-    <sheet name="ML. PŘÍPRAVKA - CH" sheetId="8" r:id="rId6"/>
-    <sheet name="ST. PŘÍPRAVKA - CH" sheetId="9" r:id="rId7"/>
-    <sheet name="MLADŠÍ ŽAČKY" sheetId="10" r:id="rId8"/>
-    <sheet name="STARŠÍ ŽAČKY" sheetId="11" r:id="rId9"/>
-    <sheet name="MLADŠÍ ŽÁCI" sheetId="12" r:id="rId10"/>
-    <sheet name="STARŠÍ ŽÁCI" sheetId="13" r:id="rId11"/>
-    <sheet name="JUNIORKY" sheetId="14" r:id="rId12"/>
-    <sheet name="JUNIOŘI" sheetId="15" r:id="rId13"/>
-    <sheet name="ŽENY - Z1" sheetId="16" r:id="rId14"/>
-    <sheet name="ŽENY - Z2" sheetId="17" r:id="rId15"/>
-    <sheet name="MUŽI - M1" sheetId="18" r:id="rId16"/>
-    <sheet name="MUŽI - M2" sheetId="19" r:id="rId17"/>
-    <sheet name="MUŽI - M3" sheetId="20" r:id="rId18"/>
+    <sheet name="Mladší přípravka - dívky" sheetId="6" r:id="rId4"/>
+    <sheet name="Starší přípravka - dívky" sheetId="7" r:id="rId5"/>
+    <sheet name="Mladší přípravka - chlapci" sheetId="8" r:id="rId6"/>
+    <sheet name="Starší přípravka - chlapci" sheetId="9" r:id="rId7"/>
+    <sheet name="Mladší žačky" sheetId="10" r:id="rId8"/>
+    <sheet name="Starší žačky" sheetId="11" r:id="rId9"/>
+    <sheet name="Mladší žáci" sheetId="12" r:id="rId10"/>
+    <sheet name="Starší žáci" sheetId="13" r:id="rId11"/>
+    <sheet name="Juniorky" sheetId="14" r:id="rId12"/>
+    <sheet name="Junioři" sheetId="15" r:id="rId13"/>
+    <sheet name="Ženy - Z1" sheetId="16" r:id="rId14"/>
+    <sheet name="Ženy - Z2" sheetId="17" r:id="rId15"/>
+    <sheet name="Muži - M1" sheetId="18" r:id="rId16"/>
+    <sheet name="Muži - M2" sheetId="19" r:id="rId17"/>
+    <sheet name="Muži - M3" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="Kategorie">Kategorie!$A$4:$E$22</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="53">
   <si>
     <t>Rok:</t>
   </si>
@@ -112,51 +112,6 @@
     <t>Předškoláci 2</t>
   </si>
   <si>
-    <t>ŽENY - Z2</t>
-  </si>
-  <si>
-    <t>MUŽI - M1</t>
-  </si>
-  <si>
-    <t>MUŽI - M2</t>
-  </si>
-  <si>
-    <t>MUŽI - M3</t>
-  </si>
-  <si>
-    <t>ML. PŘÍPRAVKA - D</t>
-  </si>
-  <si>
-    <t>ST. PŘÍPRAVKA - D</t>
-  </si>
-  <si>
-    <t>ML. PŘÍPRAVKA - CH</t>
-  </si>
-  <si>
-    <t>ST. PŘÍPRAVKA - CH</t>
-  </si>
-  <si>
-    <t>MLADŠÍ ŽAČKY</t>
-  </si>
-  <si>
-    <t>STARŠÍ ŽAČKY</t>
-  </si>
-  <si>
-    <t>MLADŠÍ ŽÁCI</t>
-  </si>
-  <si>
-    <t>STARŠÍ ŽÁCI</t>
-  </si>
-  <si>
-    <t>JUNIORKY</t>
-  </si>
-  <si>
-    <t>JUNIOŘI</t>
-  </si>
-  <si>
-    <t>..\2020\01-zdechov\Výsledky pro 2020.xlsx</t>
-  </si>
-  <si>
     <t>Předškoláci I</t>
   </si>
   <si>
@@ -211,7 +166,52 @@
     <t>Ml. přípravka CH</t>
   </si>
   <si>
-    <t>ŽENY - Z1</t>
+    <t>..\2020\02-klobouky\Výsledky Klobucká kola 2020.xlsx</t>
+  </si>
+  <si>
+    <t>..\2020\01-zdechov\Výsledky Zdechov 2020.xlsx</t>
+  </si>
+  <si>
+    <t>Mladší přípravka - dívky</t>
+  </si>
+  <si>
+    <t>Starší přípravka - dívky</t>
+  </si>
+  <si>
+    <t>Mladší přípravka - chlapci</t>
+  </si>
+  <si>
+    <t>Starší přípravka - chlapci</t>
+  </si>
+  <si>
+    <t>Mladší žačky</t>
+  </si>
+  <si>
+    <t>Starší žačky</t>
+  </si>
+  <si>
+    <t>Mladší žáci</t>
+  </si>
+  <si>
+    <t>Starší žáci</t>
+  </si>
+  <si>
+    <t>Ženy - Z1</t>
+  </si>
+  <si>
+    <t>Ženy - Z2</t>
+  </si>
+  <si>
+    <t>Muži - M1</t>
+  </si>
+  <si>
+    <t>Muži - M2</t>
+  </si>
+  <si>
+    <t>Muži - M3</t>
+  </si>
+  <si>
+    <t>pořadi</t>
   </si>
 </sst>
 </file>
@@ -603,13 +603,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F60167-74EE-4847-B777-F54D2D3F9AAF}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
@@ -640,6 +640,9 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -661,6 +664,9 @@
         <f t="shared" ref="E4:E19" si="0">$B$1-B4+1</f>
         <v>2021</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,11 +687,14 @@
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5">
         <v>7</v>
@@ -701,11 +710,14 @@
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
@@ -721,11 +733,14 @@
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
@@ -741,11 +756,14 @@
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5">
         <v>9</v>
@@ -761,11 +779,14 @@
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5">
         <v>11</v>
@@ -781,11 +802,14 @@
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5">
         <v>13</v>
@@ -801,11 +825,14 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
@@ -821,11 +848,14 @@
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5">
         <v>13</v>
@@ -841,11 +871,14 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>15</v>
@@ -861,11 +894,14 @@
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>15</v>
@@ -881,11 +917,14 @@
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5">
         <v>18</v>
@@ -901,11 +940,14 @@
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5">
         <v>40</v>
@@ -921,11 +963,14 @@
         <f>IF(ISNUMBER(C17),$B$1-C17+1,C17)</f>
         <v>1921</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5">
         <v>18</v>
@@ -941,11 +986,14 @@
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5">
         <v>40</v>
@@ -961,11 +1009,14 @@
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5">
         <v>50</v>
@@ -980,6 +1031,9 @@
       <c r="E20" s="6">
         <f>IF(ISNUMBER(C20),$B$1-C20+1,C20)</f>
         <v>1921</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1003,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66DD3EB-1418-4AD7-AF94-FBBA9B37CCA7}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1032,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1054,10 +1108,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1075,6 +1129,32 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1085,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536DB9BF-9270-4AA0-8EA3-C2E9A08212FE}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1136,10 +1216,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1157,6 +1237,32 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1167,170 +1273,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946E38EF-5743-4933-9DDC-13FFB0014327}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36456C0-7065-486E-8B2F-B411D84D34E2}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC10038-95CC-4975-AE20-40C87AC8AF81}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1360,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1382,10 +1324,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1403,6 +1345,222 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36456C0-7065-486E-8B2F-B411D84D34E2}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC10038-95CC-4975-AE20-40C87AC8AF81}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1413,7 +1571,1087 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC34F1C-98BB-4F0C-8303-1E228B91F05E}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD4F9F6-A3DB-4EB0-B5CD-B5C06460778A}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04EC5F-3248-47A8-8EC7-2E949A0B770F}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DBF4A4-BFA5-47D1-88BF-341A86C1E640}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBE0CB4-6079-4D52-8B87-706BE18C11DA}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E0053-8426-48C9-B2BD-0093B4F61388}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133430E9-4ED1-4C6D-8E2B-9EA6F1CD5FA9}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F88C79-E3DD-4029-A83E-4EDCB62AFB21}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8F5731-8725-4499-A7BF-4B334BF8702B}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BB204B-3660-4703-9383-5A8A01119918}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA0746-7BD2-400D-8377-89715DC1C86E}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1442,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1464,10 +2702,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1485,6 +2723,32 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1493,12 +2757,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD4F9F6-A3DB-4EB0-B5CD-B5C06460778A}">
-  <dimension ref="A1:N2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B030A4-A1C4-4E81-B505-FEA2C1F1BD9C}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1546,10 +2810,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1570,825 +2834,29 @@
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04EC5F-3248-47A8-8EC7-2E949A0B770F}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DBF4A4-BFA5-47D1-88BF-341A86C1E640}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBE0CB4-6079-4D52-8B87-706BE18C11DA}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E0053-8426-48C9-B2BD-0093B4F61388}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133430E9-4ED1-4C6D-8E2B-9EA6F1CD5FA9}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F88C79-E3DD-4029-A83E-4EDCB62AFB21}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8F5731-8725-4499-A7BF-4B334BF8702B}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BB204B-3660-4703-9383-5A8A01119918}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA0746-7BD2-400D-8377-89715DC1C86E}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B030A4-A1C4-4E81-B505-FEA2C1F1BD9C}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/processor/config2020.xlsx
+++ b/processor/config2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Data\Problems\vkct\processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F549D7-3E89-4E93-A247-1222E87DED77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC56BFD0-91AC-4CFF-AE8E-89A2A9CB0660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="18120" tabRatio="937" firstSheet="4" activeTab="14" xr2:uid="{15338A40-4FCA-4B48-85DC-9A39AA2E7524}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16890" tabRatio="937" xr2:uid="{15338A40-4FCA-4B48-85DC-9A39AA2E7524}"/>
   </bookViews>
   <sheets>
     <sheet name="Kategorie" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="65">
   <si>
     <t>Rok:</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Z2</t>
+  </si>
+  <si>
+    <t>..\2020\05-plostina\plostina2020.xlsx</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F60167-74EE-4847-B777-F54D2D3F9AAF}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1090,1189 +1093,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66DD3EB-1418-4AD7-AF94-FBBA9B37CCA7}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536DB9BF-9270-4AA0-8EA3-C2E9A08212FE}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946E38EF-5743-4933-9DDC-13FFB0014327}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36456C0-7065-486E-8B2F-B411D84D34E2}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC10038-95CC-4975-AE20-40C87AC8AF81}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC34F1C-98BB-4F0C-8303-1E228B91F05E}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD4F9F6-A3DB-4EB0-B5CD-B5C06460778A}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04EC5F-3248-47A8-8EC7-2E949A0B770F}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2327,10 +1147,10 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2353,10 +1173,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2379,7 +1199,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2399,36 +1219,36 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2454,8 +1274,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DBF4A4-BFA5-47D1-88BF-341A86C1E640}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536DB9BF-9270-4AA0-8EA3-C2E9A08212FE}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,10 +1330,10 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2536,10 +1356,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2562,7 +1382,562 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946E38EF-5743-4933-9DDC-13FFB0014327}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36456C0-7065-486E-8B2F-B411D84D34E2}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC10038-95CC-4975-AE20-40C87AC8AF81}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2585,7 +1960,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2611,8 +1986,844 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC34F1C-98BB-4F0C-8303-1E228B91F05E}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD4F9F6-A3DB-4EB0-B5CD-B5C06460778A}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04EC5F-3248-47A8-8EC7-2E949A0B770F}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DBF4A4-BFA5-47D1-88BF-341A86C1E640}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="C6">
         <v>7</v>
       </c>
@@ -2629,6 +2840,32 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2639,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBE0CB4-6079-4D52-8B87-706BE18C11DA}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,6 +3027,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2798,7 +3061,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E0053-8426-48C9-B2BD-0093B4F61388}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2948,6 +3211,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2955,10 +3244,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133430E9-4ED1-4C6D-8E2B-9EA6F1CD5FA9}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,6 +3394,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3112,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F88C79-E3DD-4029-A83E-4EDCB62AFB21}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,6 +3577,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3269,10 +3610,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8F5731-8725-4499-A7BF-4B334BF8702B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,6 +3760,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3426,10 +3793,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BB204B-3660-4703-9383-5A8A01119918}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,6 +3943,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3583,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA0746-7BD2-400D-8377-89715DC1C86E}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,6 +4126,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3740,10 +4159,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B030A4-A1C4-4E81-B505-FEA2C1F1BD9C}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,6 +4309,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
